--- a/WIP/RemovingConsistency/output.xlsx
+++ b/WIP/RemovingConsistency/output.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>136</v>
+        <v>35.5</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -450,19 +450,19 @@
         <v>0.1</v>
       </c>
       <c r="C3">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -471,13 +471,13 @@
         <v>0.2</v>
       </c>
       <c r="C4">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -492,19 +492,19 @@
         <v>0.3</v>
       </c>
       <c r="C5">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -513,19 +513,19 @@
         <v>0.4</v>
       </c>
       <c r="C6">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -534,19 +534,19 @@
         <v>0.5</v>
       </c>
       <c r="C7">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>11</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -555,19 +555,19 @@
         <v>0.6</v>
       </c>
       <c r="C8">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -576,19 +576,19 @@
         <v>0.7</v>
       </c>
       <c r="C9">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
         <v>15</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-      <c r="G9">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -597,19 +597,19 @@
         <v>0.7999999999999999</v>
       </c>
       <c r="C10">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E10">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G10">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -618,19 +618,19 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="C11">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E11">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F11">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G11">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -645,13 +645,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="G12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>216</v>
+        <v>51</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -683,10 +683,10 @@
         <v>0.1</v>
       </c>
       <c r="C14">
-        <v>213</v>
+        <v>53</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -695,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -704,10 +704,10 @@
         <v>0.2</v>
       </c>
       <c r="C15">
-        <v>216</v>
+        <v>52</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -725,10 +725,10 @@
         <v>0.3</v>
       </c>
       <c r="C16">
-        <v>213</v>
+        <v>53</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -737,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -746,13 +746,13 @@
         <v>0.4</v>
       </c>
       <c r="C17">
-        <v>214</v>
+        <v>51</v>
       </c>
       <c r="D17">
         <v>7</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -767,7 +767,7 @@
         <v>0.5</v>
       </c>
       <c r="C18">
-        <v>217</v>
+        <v>50</v>
       </c>
       <c r="D18">
         <v>7</v>
@@ -788,10 +788,10 @@
         <v>0.6</v>
       </c>
       <c r="C19">
-        <v>218</v>
+        <v>53</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -809,19 +809,19 @@
         <v>0.7</v>
       </c>
       <c r="C20">
-        <v>199</v>
+        <v>55</v>
       </c>
       <c r="D20">
         <v>8</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20">
         <v>3</v>
       </c>
       <c r="G20">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -830,19 +830,19 @@
         <v>0.7999999999999999</v>
       </c>
       <c r="C21">
-        <v>186</v>
+        <v>53</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -851,19 +851,19 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="C22">
-        <v>181</v>
+        <v>53</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
         <v>8</v>
-      </c>
-      <c r="F22">
-        <v>5</v>
-      </c>
-      <c r="G22">
-        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -872,19 +872,19 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C23">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="D23">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E23">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F23">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G23">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>251</v>
+        <v>65</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -916,10 +916,10 @@
         <v>0.1</v>
       </c>
       <c r="C25">
-        <v>248</v>
+        <v>64</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -937,7 +937,7 @@
         <v>0.2</v>
       </c>
       <c r="C26">
-        <v>249</v>
+        <v>67</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -958,10 +958,10 @@
         <v>0.3</v>
       </c>
       <c r="C27">
-        <v>250</v>
+        <v>61</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -979,7 +979,7 @@
         <v>0.4</v>
       </c>
       <c r="C28">
-        <v>245</v>
+        <v>65</v>
       </c>
       <c r="D28">
         <v>5</v>
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1000,13 +1000,13 @@
         <v>0.5</v>
       </c>
       <c r="C29">
-        <v>239</v>
+        <v>64</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -1021,19 +1021,19 @@
         <v>0.6</v>
       </c>
       <c r="C30">
-        <v>251</v>
+        <v>60</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F30">
         <v>2</v>
       </c>
       <c r="G30">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1042,16 +1042,16 @@
         <v>0.7</v>
       </c>
       <c r="C31">
-        <v>244</v>
+        <v>56</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E31">
         <v>4</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G31">
         <v>5</v>
@@ -1063,16 +1063,16 @@
         <v>0.7999999999999999</v>
       </c>
       <c r="C32">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -1084,19 +1084,19 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="C33">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="D33">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F33">
         <v>6</v>
       </c>
       <c r="G33">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1105,19 +1105,19 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C34">
-        <v>158</v>
+        <v>50</v>
       </c>
       <c r="D34">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E34">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F34">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G34">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>274</v>
+        <v>69</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -1149,7 +1149,7 @@
         <v>0.1</v>
       </c>
       <c r="C36">
-        <v>275</v>
+        <v>63</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -1170,10 +1170,10 @@
         <v>0.2</v>
       </c>
       <c r="C37">
-        <v>275</v>
+        <v>69</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1191,7 +1191,7 @@
         <v>0.3</v>
       </c>
       <c r="C38">
-        <v>265</v>
+        <v>67</v>
       </c>
       <c r="D38">
         <v>4</v>
@@ -1212,10 +1212,10 @@
         <v>0.4</v>
       </c>
       <c r="C39">
-        <v>270</v>
+        <v>68</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1233,16 +1233,16 @@
         <v>0.5</v>
       </c>
       <c r="C40">
-        <v>267</v>
+        <v>65</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -1254,19 +1254,19 @@
         <v>0.6</v>
       </c>
       <c r="C41">
-        <v>270</v>
+        <v>59</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1275,19 +1275,19 @@
         <v>0.7</v>
       </c>
       <c r="C42">
-        <v>250</v>
+        <v>57</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1296,7 +1296,7 @@
         <v>0.7999999999999999</v>
       </c>
       <c r="C43">
-        <v>246</v>
+        <v>67</v>
       </c>
       <c r="D43">
         <v>6</v>
@@ -1317,19 +1317,19 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="C44">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c r="D44">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44">
         <v>7</v>
-      </c>
-      <c r="F44">
-        <v>6</v>
-      </c>
-      <c r="G44">
-        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1338,19 +1338,19 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C45">
-        <v>164</v>
+        <v>58</v>
       </c>
       <c r="D45">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E45">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F45">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G45">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>286</v>
+        <v>70</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -1382,7 +1382,7 @@
         <v>0.1</v>
       </c>
       <c r="C47">
-        <v>287</v>
+        <v>72</v>
       </c>
       <c r="D47">
         <v>3</v>
@@ -1403,10 +1403,10 @@
         <v>0.2</v>
       </c>
       <c r="C48">
-        <v>284</v>
+        <v>73</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1424,10 +1424,10 @@
         <v>0.3</v>
       </c>
       <c r="C49">
-        <v>281</v>
+        <v>71</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -1445,7 +1445,7 @@
         <v>0.4</v>
       </c>
       <c r="C50">
-        <v>285</v>
+        <v>71</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1466,19 +1466,19 @@
         <v>0.5</v>
       </c>
       <c r="C51">
-        <v>276</v>
+        <v>71</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1487,10 +1487,10 @@
         <v>0.6</v>
       </c>
       <c r="C52">
-        <v>277</v>
+        <v>72</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -1499,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1508,16 +1508,16 @@
         <v>0.7</v>
       </c>
       <c r="C53">
-        <v>273</v>
+        <v>70</v>
       </c>
       <c r="D53">
         <v>4</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -1529,10 +1529,10 @@
         <v>0.7999999999999999</v>
       </c>
       <c r="C54">
-        <v>232</v>
+        <v>61</v>
       </c>
       <c r="D54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E54">
         <v>4</v>
@@ -1541,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="G54">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1550,19 +1550,19 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="C55">
-        <v>195</v>
+        <v>59</v>
       </c>
       <c r="D55">
         <v>7</v>
       </c>
       <c r="E55">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F55">
+        <v>3</v>
+      </c>
+      <c r="G55">
         <v>6</v>
-      </c>
-      <c r="G55">
-        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1571,19 +1571,19 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C56">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="D56">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E56">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F56">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G56">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
